--- a/Load_Profile_Day.xlsx
+++ b/Load_Profile_Day.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Total Load Profile for All Users on 2023-01-19</t>
+    <t>Total Load Profile for All Users on 2023-01-20</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.6637278719</v>
+        <v>0.6567142857</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.6747278719000001</v>
+        <v>0.6577142857</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.6427278719</v>
+        <v>0.6647142857</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5347278719</v>
+        <v>0.5467142857</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.3147278719</v>
+        <v>0.2647142857</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.3694964588</v>
+        <v>0.2887142857</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.3124167589</v>
+        <v>0.3106345858</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.3329942824</v>
+        <v>0.3197117632</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.3230069436</v>
+        <v>0.4647965081</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.3840855562</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.662</v>
+        <v>0.533</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.645</v>
+        <v>0.499</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.674</v>
+        <v>0.4965</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.7045</v>
+        <v>0.5115000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.7305</v>
+        <v>0.506</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.7035</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.9422475704000001</v>
+        <v>0.7458028329</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.5443327078</v>
+        <v>1.4707985559</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.5989197218</v>
+        <v>1.4083986112</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.167</v>
+        <v>1.414</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -626,7 +626,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>0.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -634,7 +634,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>0.772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:2">

--- a/Load_Profile_Day.xlsx
+++ b/Load_Profile_Day.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Total Load Profile for All Users on 2023-01-20</t>
+    <t>Total Load Profile for All Users on 2023-01-25 (Mthembanji)</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.6567142857</v>
+        <v>0.5620000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.6577142857</v>
+        <v>0.5660000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.6647142857</v>
+        <v>0.556</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.5467142857</v>
+        <v>0.4553333333</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2647142857</v>
+        <v>0.2113333333</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.2887142857</v>
+        <v>0.2003333333</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.3106345858</v>
+        <v>0.2009441823</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.3197117632</v>
+        <v>0.3089699845</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.4647965081</v>
+        <v>0.3592768994</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.551</v>
+        <v>0.3652022335</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.533</v>
+        <v>0.4002022335</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.499</v>
+        <v>0.3812022335</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.4965</v>
+        <v>0.4662022335</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.5115000000000001</v>
+        <v>0.583</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -578,7 +578,7 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>0.506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -586,7 +586,7 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>0.488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -594,7 +594,7 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.7458028329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -602,7 +602,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.4707985559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -610,7 +610,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.4083986112</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -618,7 +618,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>1.414</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:2">

--- a/Load_Profile_Day.xlsx
+++ b/Load_Profile_Day.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
-    <t>Total Load Profile for All Users on 2023-01-25 (Mthembanji)</t>
+    <t>Total Load Profile for All Users on 2023-02-07 (Mthembanji)</t>
   </si>
   <si>
     <t>Time</t>
@@ -466,7 +466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.5620000000000001</v>
+        <v>0.6340011806</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.5660000000000001</v>
+        <v>0.6164000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0.556</v>
+        <v>0.5994</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -490,7 +490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.4553333333</v>
+        <v>0.5072678148</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -498,7 +498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.2113333333</v>
+        <v>0.2745321852</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -506,7 +506,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0.2003333333</v>
+        <v>0.2344</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -514,7 +514,7 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>0.2009441823</v>
+        <v>0.1719522356</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -522,7 +522,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0.3089699845</v>
+        <v>0.1670013754</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -530,7 +530,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0.3592768994</v>
+        <v>0.2710391657</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -538,7 +538,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0.3652022335</v>
+        <v>0.2930072233</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -546,7 +546,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0.4002022335</v>
+        <v>0.2515</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -554,7 +554,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0.3812022335</v>
+        <v>0.3065</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -562,7 +562,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0.4662022335</v>
+        <v>0.3545</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -570,7 +570,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0.583</v>
+        <v>0.3665</v>
       </c>
     </row>
     <row r="17" spans="1:2">
